--- a/问题（bug）反馈表.xlsx
+++ b/问题（bug）反馈表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>序号</t>
   </si>
@@ -49,6 +49,75 @@
   </si>
   <si>
     <t>验证完成否？</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>订单编号生成规则</t>
+  </si>
+  <si>
+    <t>确定是否需要对接erp最新订单生成流水号</t>
+  </si>
+  <si>
+    <t>/salesorderbill/goAdd.do</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>陈麒戈</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>新增/编辑</t>
+  </si>
+  <si>
+    <t>绑定业务员</t>
+  </si>
+  <si>
+    <t>需商量员工表设计方案</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>订单明细添加商品</t>
+  </si>
+  <si>
+    <t>商品需做好同步以及绑定分类</t>
+  </si>
+  <si>
+    <t>变更日志</t>
+  </si>
+  <si>
+    <t>详细沟通该功能</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>同步、变更、导出功能</t>
+  </si>
+  <si>
+    <t>需完善</t>
+  </si>
+  <si>
+    <t>/salesorderbill/list.do</t>
+  </si>
+  <si>
+    <t>订单明细商品信息页签</t>
+  </si>
+  <si>
+    <t>审批后操作</t>
+  </si>
+  <si>
+    <t>需确认该订单成功审批后是否允许再作修改操作</t>
   </si>
 </sst>
 </file>
@@ -56,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,23 +140,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,7 +176,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,106 +282,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,38 +504,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +544,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -517,22 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,156 +603,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,15 +1106,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="47.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="16384" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -1088,95 +1164,223 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43422</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1"/>
@@ -1359,6 +1563,19 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1376,7 +1593,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1610,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题（bug）反馈表.xlsx
+++ b/问题（bug）反馈表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>序号</t>
   </si>
@@ -60,7 +60,19 @@
     <t>订单编号生成规则</t>
   </si>
   <si>
-    <t>确定是否需要对接erp最新订单生成流水号</t>
+    <r>
+      <t>确定是否需要对接erp最新订单生成流水号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(已确定无需对应erp编号)</t>
+    </r>
   </si>
   <si>
     <t>/salesorderbill/goAdd.do</t>
@@ -72,19 +84,22 @@
     <t>陈麒戈</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>新增/编辑</t>
+  </si>
+  <si>
+    <t>绑定业务员</t>
+  </si>
+  <si>
+    <t>需商量员工表设计方案</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>新增/编辑</t>
-  </si>
-  <si>
-    <t>绑定业务员</t>
-  </si>
-  <si>
-    <t>需商量员工表设计方案</t>
-  </si>
-  <si>
-    <t>低</t>
   </si>
   <si>
     <t>订单明细添加商品</t>
@@ -125,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -147,14 +176,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,22 +266,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,82 +298,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -292,19 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,72 +488,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,90 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,33 +525,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,11 +575,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +597,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,141 +640,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1134,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="21" customHeight="1"/>
@@ -1118,7 +1143,7 @@
     <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="47.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="67.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
     <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
@@ -1176,7 +1201,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1189,7 +1214,7 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>43422</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1220,11 +1245,11 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>43422</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
@@ -1238,10 +1263,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1251,11 +1276,11 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>43422</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -1269,10 +1294,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1282,11 +1307,11 @@
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>43422</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
@@ -1297,16 +1322,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -1315,11 +1340,11 @@
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>43422</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -1330,13 +1355,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1346,11 +1371,11 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>43422</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -1362,10 +1387,10 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -1375,11 +1400,11 @@
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>43422</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">

--- a/问题（bug）反馈表.xlsx
+++ b/问题（bug）反馈表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>序号</t>
   </si>
@@ -61,6 +61,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>确定是否需要对接erp最新订单生成流水号</t>
     </r>
     <r>
@@ -128,22 +135,16 @@
   <si>
     <t>订单明细商品信息页签</t>
   </si>
-  <si>
-    <t>审批后操作</t>
-  </si>
-  <si>
-    <t>需确认该订单成功审批后是否允许再作修改操作</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,28 +156,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,69 +260,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +293,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -314,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +520,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,54 +599,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -620,6 +612,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:L2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="21" customHeight="1"/>
@@ -1379,33 +1380,17 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3">
-        <v>43422</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1"/>
@@ -1588,19 +1573,6 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
